--- a/FINAL Cleaned Carbonate Chemistry, water quality and coral measurements (1).xlsx
+++ b/FINAL Cleaned Carbonate Chemistry, water quality and coral measurements (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessebecklevisohn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45783087-37DA-4F71-A4BB-BB52AC0FA8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FBB49E-E26B-6040-B05E-8688492E1A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pH control" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,12 @@
   <si>
     <t xml:space="preserve">Total Alkalinity (µmol/kg SW)  </t>
   </si>
+  <si>
+    <t>Elevated</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -334,6 +340,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,13 +659,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E56E3F-1479-4A01-BE4B-B82BF68EA56D}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -670,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -684,7 +693,7 @@
         <v>541.54300000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -698,7 +707,7 @@
         <v>573.57399999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -712,7 +721,7 @@
         <v>556.72799999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -726,7 +735,7 @@
         <v>559.678</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -740,7 +749,7 @@
         <v>590.32899999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -754,7 +763,7 @@
         <v>543.23299999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -768,7 +777,7 @@
         <v>574.678</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -782,7 +791,7 @@
         <v>569.06600000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -796,7 +805,7 @@
         <v>563.83699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -810,7 +819,7 @@
         <v>589.61800000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -824,7 +833,7 @@
         <v>604.93200000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -838,7 +847,7 @@
         <v>545.01700000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -852,7 +861,7 @@
         <v>569.197</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -866,7 +875,7 @@
         <v>582.74199999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -880,7 +889,7 @@
         <v>1422.3209999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -894,7 +903,7 @@
         <v>690.12599999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -908,7 +917,7 @@
         <v>585.09799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -922,7 +931,7 @@
         <v>567.54999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -936,7 +945,7 @@
         <v>592.41300000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -950,7 +959,7 @@
         <v>707.34299999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -964,7 +973,7 @@
         <v>598.15099999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -978,7 +987,7 @@
         <v>584.73500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>599.86599999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>645.63699999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>8.0764398297617941</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>476.54199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>469.08699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>535.51800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>475.86099999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>555.19600000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>455.173</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>459.67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>8.073781606641095</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>8.0947999337558052</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>537.57500000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>593.42100000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>640.50300000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>597.94000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>572.61400000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>582.44600000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>629.30100000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>584.62800000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>574.20600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>537.90599999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>562.327</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>569.20500000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1306,7 +1315,7 @@
         <v>635.25300000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>578.99099999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>594.08000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>557.76499999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>598.91999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1376,7 +1385,7 @@
         <v>518.10400000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>611.85599999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>597.70399999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>630.26199999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -1432,7 +1441,7 @@
         <v>520.41</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>540.63900000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>541.70399999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>510.92500000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>513.10599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1502,7 +1511,7 @@
         <v>533.56600000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>555.70799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>505.62599999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>624.57299999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1558,7 +1567,7 @@
         <v>506.233</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>488.18599999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>566.73099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>491.28699999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>507.95100000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>503.36500000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>549.15599999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>8.0946473651507365</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1658,7 +1667,7 @@
         <v>8.0058057103548492</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>8.1127267102567657</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>524.76199999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>540.62599999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>7.9592063077347142</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>7.9603043226289181</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>7.9657291994476704</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>524.76199999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>514.46199999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>540.62599999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>488.55900000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>493.529</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>9</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>513.572</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>539.49599999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>528.64700000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>529.38199999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>553.82899999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>517.25800000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>533.14200000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>524.87400000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>529.33100000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>522.73400000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>542.69899999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>497.63600000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>11</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>521.47900000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>11</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>512.20100000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>11</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>527.52499999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>11</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>522.75800000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>570.49599999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>546.58399999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>525.11699999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>553.452</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>12</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>496.35300000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12</v>
       </c>
@@ -2096,7 +2105,7 @@
         <v>570.56399999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>12</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>495.05200000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>548.14300000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>12</v>
       </c>
@@ -2138,7 +2147,7 @@
         <v>497.86700000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>575.30999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>544.81299999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12</v>
       </c>
@@ -2193,9 +2202,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2223,7 +2232,7 @@
         <v>1282.4970000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>1090.1500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>1081.6610000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>1265.2090000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>897.90599999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>1346.537</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>1111.318</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>1037.5809999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>1332.0830000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>1072.4380000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>905.029</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>1266.71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>1085.479</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2405,7 +2414,7 @@
         <v>1060.2739999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>845.25099999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>985.78399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2447,7 +2456,7 @@
         <v>1084.0940000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2461,7 +2470,7 @@
         <v>1095.7919999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2475,7 +2484,7 @@
         <v>876.226</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2489,7 +2498,7 @@
         <v>1131.7159999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>927.41700000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>857.35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2531,7 +2540,7 @@
         <v>899.62900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>1095.9190000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>7.9447196321439328</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>793.49199999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2578,7 +2587,7 @@
         <v>773.04600000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>891.80899999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>796.26099999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>888.41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2634,7 +2643,7 @@
         <v>769.47299999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>758.74099999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>7.9235290470060011</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>7.9077779162153163</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>1085.127</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>1020.3630000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>878.03800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>1041.771</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2734,7 +2743,7 @@
         <v>1150.931</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2748,7 +2757,7 @@
         <v>1055.153</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>1172.8109999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>1069.0309999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2790,7 +2799,7 @@
         <v>1069.318</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>910.28599999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>1012.617</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2828,7 +2837,7 @@
         <v>1124.213</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>933.87</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>936.4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>950.79600000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>1018.694</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2898,7 +2907,7 @@
         <v>963.91200000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2912,7 +2921,7 @@
         <v>1025.4949999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>1149.1949999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2940,7 +2949,7 @@
         <v>981.63300000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>865.14099999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>819.36099999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>1141.491</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>827.40599999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -3010,7 +3019,7 @@
         <v>678.38300000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -3024,7 +3033,7 @@
         <v>836.05700000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -3038,7 +3047,7 @@
         <v>697.45100000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>898.947</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>813.09100000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>1149.788</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>819.07399999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -3108,7 +3117,7 @@
         <v>1479.549</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -3122,7 +3131,7 @@
         <v>635.18100000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7</v>
       </c>
@@ -3136,7 +3145,7 @@
         <v>669.75199999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>870.947</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7</v>
       </c>
@@ -3164,7 +3173,7 @@
         <v>883.84400000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -3178,7 +3187,7 @@
         <v>1617.739</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>8.0961267739169251</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -3194,7 +3203,7 @@
         <v>7.8256210693823052</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>8.0938013060964771</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>1061.903</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>1099.8679999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>7.6908191732254725</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>7.7006382699197991</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>7.6948974169622977</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9</v>
       </c>
@@ -3268,7 +3277,7 @@
         <v>718.16300000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>1061.903</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
@@ -3296,7 +3305,7 @@
         <v>1099.8679999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9</v>
       </c>
@@ -3310,7 +3319,7 @@
         <v>741.78399999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9</v>
       </c>
@@ -3322,7 +3331,7 @@
       </c>
       <c r="D85" s="17"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>9</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>2639.16</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>1166.886</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10</v>
       </c>
@@ -3361,7 +3370,7 @@
         <v>1497.817</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>1189.4359999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>1551.309</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10</v>
       </c>
@@ -3403,7 +3412,7 @@
         <v>1237.3579999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -3417,7 +3426,7 @@
         <v>1209.1210000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10</v>
       </c>
@@ -3431,7 +3440,7 @@
         <v>1208.2349999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11</v>
       </c>
@@ -3445,7 +3454,7 @@
         <v>938.92600000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>1015.8339999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11</v>
       </c>
@@ -3473,7 +3482,7 @@
         <v>1287.96</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v>1287.057</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>11</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>1254.857</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>11</v>
       </c>
@@ -3515,7 +3524,7 @@
         <v>959.70899999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>11</v>
       </c>
@@ -3529,7 +3538,7 @@
         <v>1253.306</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>12</v>
       </c>
@@ -3543,7 +3552,7 @@
         <v>785.23299999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>12</v>
       </c>
@@ -3557,7 +3566,7 @@
         <v>1343.59</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>1075.164</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12</v>
       </c>
@@ -3585,7 +3594,7 @@
         <v>1156.748</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>1431.547</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>12</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>808.91700000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12</v>
       </c>
@@ -3627,7 +3636,7 @@
         <v>1458.7950000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>12</v>
       </c>
@@ -3641,7 +3650,7 @@
         <v>1448.518</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>2529.36</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>12</v>
       </c>
@@ -3660,7 +3669,7 @@
         <v>2487.4140000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>2526.489</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12</v>
       </c>
@@ -3676,7 +3685,7 @@
         <v>2477.9679999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12</v>
       </c>
@@ -3697,14 +3706,14 @@
       <selection activeCell="P99" sqref="P99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42179</v>
       </c>
@@ -3768,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42180</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42181</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42182</v>
       </c>
@@ -3837,7 +3846,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42183</v>
       </c>
@@ -3857,7 +3866,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42184</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42185</v>
       </c>
@@ -3912,7 +3921,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42186</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42187</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42188</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42189</v>
       </c>
@@ -4016,7 +4025,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42190</v>
       </c>
@@ -4045,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42191</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42192</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42193</v>
       </c>
@@ -4114,7 +4123,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42194</v>
       </c>
@@ -4151,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42195</v>
       </c>
@@ -4188,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42196</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42197</v>
       </c>
@@ -4210,7 +4219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42198</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42199</v>
       </c>
@@ -4238,7 +4247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42200</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42201</v>
       </c>
@@ -4266,7 +4275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42202</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42203</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42204</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42205</v>
       </c>
@@ -4316,7 +4325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42206</v>
       </c>
@@ -4330,7 +4339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42207</v>
       </c>
@@ -4344,7 +4353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42208</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42209</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42210</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42211</v>
       </c>
@@ -4394,7 +4403,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42212</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42213</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42214</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42215</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42216</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42217</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42218</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42219</v>
       </c>
@@ -4500,7 +4509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42220</v>
       </c>
@@ -4514,7 +4523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42221</v>
       </c>
@@ -4528,7 +4537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42222</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42223</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42224</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42225</v>
       </c>
@@ -4578,7 +4587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42226</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42227</v>
       </c>
@@ -4606,7 +4615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42228</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42229</v>
       </c>
@@ -4634,7 +4643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42230</v>
       </c>
@@ -4648,7 +4657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42231</v>
       </c>
@@ -4659,7 +4668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42232</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42233</v>
       </c>
@@ -4684,7 +4693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42234</v>
       </c>
@@ -4698,7 +4707,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42235</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42236</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42237</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42238</v>
       </c>
@@ -4751,7 +4760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42239</v>
       </c>
@@ -4762,7 +4771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42240</v>
       </c>
@@ -4776,7 +4785,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42241</v>
       </c>
@@ -4790,7 +4799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42242</v>
       </c>
@@ -4804,7 +4813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42243</v>
       </c>
@@ -4818,7 +4827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42244</v>
       </c>
@@ -4832,7 +4841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42245</v>
       </c>
@@ -4843,7 +4852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42246</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42247</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42248</v>
       </c>
@@ -4882,7 +4891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42249</v>
       </c>
@@ -4896,7 +4905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42250</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42251</v>
       </c>
@@ -4924,7 +4933,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42252</v>
       </c>
@@ -4935,7 +4944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42253</v>
       </c>
@@ -4946,7 +4955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42254</v>
       </c>
@@ -4957,7 +4966,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42255</v>
       </c>
@@ -4971,7 +4980,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42256</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42257</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42258</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42259</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42260</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42261</v>
       </c>
@@ -5049,7 +5058,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42262</v>
       </c>
@@ -5063,7 +5072,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42263</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42264</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42265</v>
       </c>
@@ -5105,7 +5114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42266</v>
       </c>
@@ -5116,7 +5125,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42267</v>
       </c>
@@ -5127,7 +5136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42268</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42269</v>
       </c>
@@ -5155,7 +5164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42270</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42271</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -5196,7 +5205,7 @@
         <v>34.999367088607606</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -5216,15 +5225,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31F1240-682A-44B8-88DE-4A336831DD25}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:G41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -5246,8 +5255,14 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5261,8 +5276,14 @@
         <f>C2/B2</f>
         <v>72.791623745885161</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5276,8 +5297,15 @@
         <f t="shared" ref="D3:D21" si="0">C3/B3</f>
         <v>34.140893522596755</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> MOD(I2 + 1, 10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5291,8 +5319,15 @@
         <f t="shared" si="0"/>
         <v>31.448996981620319</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="1" xml:space="preserve"> MOD(I3 + 1, 10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5306,8 +5341,15 @@
         <f t="shared" si="0"/>
         <v>37.568358986003766</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5321,8 +5363,15 @@
         <f t="shared" si="0"/>
         <v>44.807391048737735</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5336,8 +5385,15 @@
         <f t="shared" si="0"/>
         <v>63.800755833570342</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5351,8 +5407,15 @@
         <f t="shared" si="0"/>
         <v>79.503366991951268</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5366,8 +5429,15 @@
         <f t="shared" si="0"/>
         <v>34.077246899336266</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5381,8 +5451,15 @@
         <f t="shared" si="0"/>
         <v>46.65632560182241</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5396,8 +5473,15 @@
         <f t="shared" si="0"/>
         <v>45.909412477263963</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -5420,8 +5504,15 @@
       <c r="G12" s="21">
         <v>59.104663061449344</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -5444,8 +5535,15 @@
       <c r="G13" s="21">
         <v>37.819365350498103</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -5468,8 +5566,15 @@
       <c r="G14" s="21">
         <v>65.024815738734119</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -5492,8 +5597,15 @@
       <c r="G15" s="21">
         <v>87.680959324519719</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -5516,8 +5628,15 @@
       <c r="G16" s="21">
         <v>33.459262692362337</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -5540,8 +5659,15 @@
       <c r="G17" s="21">
         <v>65.742884491966521</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -5564,8 +5690,15 @@
       <c r="G18" s="21">
         <v>39.399154137234014</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -5588,8 +5721,15 @@
       <c r="G19" s="21">
         <v>57.928028353589497</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -5612,8 +5752,15 @@
       <c r="G20" s="21">
         <v>67.502148471900213</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -5636,8 +5783,15 @@
       <c r="G21" s="25">
         <v>61.008004962122499</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -5660,8 +5814,15 @@
       <c r="G22" s="21">
         <v>15.519218274993024</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -5672,7 +5833,7 @@
         <v>542.41686664801307</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:D41" si="1">C23/B23</f>
+        <f t="shared" ref="D23:D41" si="2">C23/B23</f>
         <v>48.373929068760638</v>
       </c>
       <c r="E23" s="18">
@@ -5684,8 +5845,15 @@
       <c r="G23" s="21">
         <v>2.8078399926622617</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -5696,7 +5864,7 @@
         <v>656.0027857827049</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.133146297047986</v>
       </c>
       <c r="E24" s="18">
@@ -5708,8 +5876,15 @@
       <c r="G24" s="21">
         <v>10.085998470043783</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -5720,7 +5895,7 @@
         <v>659.77020968937711</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.462406336010659</v>
       </c>
       <c r="E25" s="18">
@@ -5732,8 +5907,15 @@
       <c r="G25" s="21">
         <v>2.7709360584478664</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -5744,7 +5926,7 @@
         <v>831.54312346695156</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.053176905062926</v>
       </c>
       <c r="E26" s="18">
@@ -5756,8 +5938,15 @@
       <c r="G26" s="21">
         <v>23.835543896994601</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -5768,7 +5957,7 @@
         <v>698.48115205594445</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.71655004606632</v>
       </c>
       <c r="E27" s="18">
@@ -5780,8 +5969,15 @@
       <c r="G27" s="21">
         <v>18.886279978553688</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -5792,7 +5988,7 @@
         <v>1002.7822453326908</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130.8944322324358</v>
       </c>
       <c r="E28" s="18">
@@ -5804,8 +6000,15 @@
       <c r="G28" s="21">
         <v>18.106966095748859</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -5816,7 +6019,7 @@
         <v>647.2974190662726</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.343486582273655</v>
       </c>
       <c r="E29" s="18">
@@ -5828,8 +6031,15 @@
       <c r="G29" s="21">
         <v>2.8354378266214963</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -5840,7 +6050,7 @@
         <v>726.8618239524211</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.382570651053797</v>
       </c>
       <c r="E30" s="18">
@@ -5852,8 +6062,15 @@
       <c r="G30" s="21">
         <v>9.2542427197045587</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -5864,7 +6081,7 @@
         <v>843.26963476428068</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.783496728181618</v>
       </c>
       <c r="E31" s="22">
@@ -5876,8 +6093,15 @@
       <c r="G31" s="25">
         <v>10.64109661012065</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -5888,7 +6112,7 @@
         <v>928.91676759342283</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138.54090493563351</v>
       </c>
       <c r="E32" s="18">
@@ -5900,8 +6124,15 @@
       <c r="G32" s="21">
         <v>3.5522317823621052</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -5912,7 +6143,7 @@
         <v>512.48408080403738</v>
       </c>
       <c r="D33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.097156001763231</v>
       </c>
       <c r="E33" s="18">
@@ -5924,8 +6155,15 @@
       <c r="G33" s="21">
         <v>-6.7738410546302141</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -5936,7 +6174,7 @@
         <v>613.22590777915525</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.373639632838739</v>
       </c>
       <c r="E34" s="18">
@@ -5948,8 +6186,15 @@
       <c r="G34" s="21">
         <v>-4.8299574643797074</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -5960,7 +6205,7 @@
         <v>683.82099099522293</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.65416393914397</v>
       </c>
       <c r="E35" s="18">
@@ -5972,8 +6217,15 @@
       <c r="G35" s="21">
         <v>0.26463046540867641</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -5984,7 +6236,7 @@
         <v>815.56171713685251</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.982499305988753</v>
       </c>
       <c r="E36" s="18">
@@ -5996,8 +6248,15 @@
       <c r="G36" s="21">
         <v>-2.7962036007297932</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -6008,7 +6267,7 @@
         <v>779.11534651746535</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137.9453517205144</v>
       </c>
       <c r="E37" s="18">
@@ -6020,8 +6279,15 @@
       <c r="G37" s="21">
         <v>9.7272806722480674</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -6032,7 +6298,7 @@
         <v>1012.2177158624182</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129.52242045584364</v>
       </c>
       <c r="E38" s="18">
@@ -6044,8 +6310,15 @@
       <c r="G38" s="21">
         <v>-1.0481819227847751</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -6056,7 +6329,7 @@
         <v>636.07087815468458</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.673446635265989</v>
       </c>
       <c r="E39" s="18">
@@ -6068,8 +6341,15 @@
       <c r="G39" s="21">
         <v>-1.2106934137797487</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -6080,7 +6360,7 @@
         <v>753.51098076298592</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.920173118351116</v>
       </c>
       <c r="E40" s="18">
@@ -6092,8 +6372,15 @@
       <c r="G40" s="21">
         <v>1.8008388077014892</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -6104,7 +6391,7 @@
         <v>916.30648511423965</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.816358078243468</v>
       </c>
       <c r="E41" s="22">
@@ -6115,6 +6402,13 @@
       </c>
       <c r="G41" s="25">
         <v>9.8221055242479274</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6124,15 +6418,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BF8D5C-9BDE-4ECA-9270-5B09D81E1D28}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -6154,8 +6448,14 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6169,8 +6469,14 @@
         <f t="shared" ref="D2:D41" si="0">C2/B2</f>
         <v>49.832160983953919</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6184,8 +6490,15 @@
         <f t="shared" si="0"/>
         <v>40.19327263378954</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> MOD(I2 + 1, 10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6199,8 +6512,15 @@
         <f t="shared" si="0"/>
         <v>73.230439466260918</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="1" xml:space="preserve"> MOD(I3 + 1, 10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6214,8 +6534,15 @@
         <f t="shared" si="0"/>
         <v>33.956503013964372</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -6229,8 +6556,15 @@
         <f t="shared" si="0"/>
         <v>36.290296645541012</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -6244,8 +6578,15 @@
         <f t="shared" si="0"/>
         <v>63.402981766443631</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -6259,8 +6600,15 @@
         <f t="shared" si="0"/>
         <v>41.54738634450932</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6274,8 +6622,15 @@
         <f t="shared" si="0"/>
         <v>43.580637474981543</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6289,8 +6644,15 @@
         <f t="shared" si="0"/>
         <v>53.486864379173227</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -6304,8 +6666,15 @@
         <f t="shared" si="0"/>
         <v>44.976528146821366</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -6328,8 +6697,15 @@
       <c r="G12" s="21">
         <v>26.012401641328449</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -6352,8 +6728,15 @@
       <c r="G13" s="21">
         <v>50.641246089606781</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -6376,8 +6759,15 @@
       <c r="G14" s="21">
         <v>43.552487242326286</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -6400,8 +6790,15 @@
       <c r="G15" s="21">
         <v>90.873656296283542</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -6424,8 +6821,15 @@
       <c r="G16" s="21">
         <v>36.958705375153585</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -6448,8 +6852,15 @@
       <c r="G17" s="21">
         <v>51.201977070458128</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -6472,8 +6883,15 @@
       <c r="G18" s="21">
         <v>46.740322125247616</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -6496,8 +6914,15 @@
       <c r="G19" s="21">
         <v>63.036346394506026</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -6520,8 +6945,15 @@
       <c r="G20" s="21">
         <v>73.825061170804517</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -6544,8 +6976,15 @@
       <c r="G21" s="25">
         <v>47.811714683553419</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -6568,8 +7007,15 @@
       <c r="G22" s="21">
         <v>12.91073504952451</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -6592,8 +7038,15 @@
       <c r="G23" s="21">
         <v>9.2761759549271421</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -6616,8 +7069,15 @@
       <c r="G24" s="21">
         <v>15.147474702402461</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -6640,8 +7100,15 @@
       <c r="G25" s="21">
         <v>2.6683210487773343</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -6664,8 +7131,15 @@
       <c r="G26" s="21">
         <v>16.548820228236782</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -6688,8 +7162,15 @@
       <c r="G27" s="21">
         <v>7.3964850370816961</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -6712,8 +7193,15 @@
       <c r="G28" s="21">
         <v>7.6816561005899775</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -6736,8 +7224,15 @@
       <c r="G29" s="21">
         <v>1.4564208228751883</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -6760,8 +7255,15 @@
       <c r="G30" s="21">
         <v>10.692468580627237</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -6784,8 +7286,15 @@
       <c r="G31" s="25">
         <v>22.748804312319958</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -6808,8 +7317,15 @@
       <c r="G32" s="21">
         <v>1.5010569950511201</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -6832,8 +7348,15 @@
       <c r="G33" s="21">
         <v>-5.0713453078307182</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -6856,8 +7379,15 @@
       <c r="G34" s="21">
         <v>5.041262571673621</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -6880,8 +7410,15 @@
       <c r="G35" s="21">
         <v>-1.5647650310476948</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -6904,8 +7441,15 @@
       <c r="G36" s="21">
         <v>-3.3912720928758757</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -6928,8 +7472,15 @@
       <c r="G37" s="21">
         <v>3.1602217620219188</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -6952,8 +7503,15 @@
       <c r="G38" s="21">
         <v>-3.4619718272773299</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -6976,8 +7534,15 @@
       <c r="G39" s="21">
         <v>3.4018292173905458</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -7000,8 +7565,15 @@
       <c r="G40" s="21">
         <v>1.9695920892412029</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -7023,6 +7595,13 @@
       </c>
       <c r="G41" s="25">
         <v>11.444544079279789</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7035,12 +7614,12 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7062,14 +7641,18 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7082,8 +7665,14 @@
       <c r="D2" s="29">
         <v>46.702018119999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7096,8 +7685,15 @@
       <c r="D3" s="29">
         <v>32.273007749999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> MOD(I2 + 1, 10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7110,8 +7706,15 @@
       <c r="D4" s="29">
         <v>47.377409280000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="0" xml:space="preserve"> MOD(I3 + 1, 10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7124,8 +7727,15 @@
       <c r="D5" s="29">
         <v>46.558032740000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7138,8 +7748,15 @@
       <c r="D6" s="29">
         <v>39.829943200000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7152,8 +7769,15 @@
       <c r="D7" s="29">
         <v>51.54357521</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -7166,8 +7790,15 @@
       <c r="D8" s="29">
         <v>29.559832279999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -7180,8 +7811,15 @@
       <c r="D9" s="29">
         <v>29.844481340000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7194,8 +7832,15 @@
       <c r="D10" s="29">
         <v>37.318114420000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -7208,8 +7853,15 @@
       <c r="D11" s="35">
         <v>41.191321909999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -7231,8 +7883,15 @@
       <c r="G12" s="20">
         <v>34.255723820600977</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -7254,8 +7913,15 @@
       <c r="G13" s="20">
         <v>-4.8993491909358644</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -7277,8 +7943,15 @@
       <c r="G14" s="20">
         <v>55.621099433737598</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -7300,8 +7973,15 @@
       <c r="G15" s="20">
         <v>43.697413385267581</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -7323,8 +8003,15 @@
       <c r="G16" s="20">
         <v>23.440790200361739</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -7346,8 +8033,15 @@
       <c r="G17" s="20">
         <v>47.760985158636799</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -7369,8 +8063,15 @@
       <c r="G18" s="20">
         <v>-4.872622044935607</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -7392,8 +8093,15 @@
       <c r="G19" s="20">
         <v>21.364887777388645</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -7415,8 +8123,15 @@
       <c r="G20" s="20">
         <v>31.862042373203941</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -7438,8 +8153,15 @@
       <c r="G21" s="24">
         <v>1.9952383714566837</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -7461,8 +8183,15 @@
       <c r="G22" s="20">
         <v>-44.488630231485246</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -7484,8 +8213,15 @@
       <c r="G23" s="20">
         <v>-33.098679062830641</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -7507,8 +8243,15 @@
       <c r="G24" s="20">
         <v>-31.695897961952703</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -7530,8 +8273,15 @@
       <c r="G25" s="20">
         <v>-18.887516846123646</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -7553,8 +8303,15 @@
       <c r="G26" s="20">
         <v>-26.405018245701633</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -7576,8 +8333,15 @@
       <c r="G27" s="20">
         <v>-23.584602006322125</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -7599,8 +8363,15 @@
       <c r="G28" s="20">
         <v>-2.871733099313579</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -7622,8 +8393,15 @@
       <c r="G29" s="20">
         <v>-15.872394175210863</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -7645,8 +8423,15 @@
       <c r="G30" s="20">
         <v>-37.613043948380692</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -7668,8 +8453,15 @@
       <c r="G31" s="24">
         <v>-0.99926460080054325</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -7691,8 +8483,15 @@
       <c r="G32" s="21">
         <v>30.902837524305728</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -7714,8 +8513,15 @@
       <c r="G33" s="21">
         <v>-5.1338869683550143</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -7737,8 +8543,15 @@
       <c r="G34" s="21">
         <v>-5.3154867486771584</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -7760,8 +8573,15 @@
       <c r="G35" s="21">
         <v>-20.576386871557919</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -7783,8 +8603,15 @@
       <c r="G36" s="21">
         <v>-15.768496852954653</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -7806,8 +8633,15 @@
       <c r="G37" s="21">
         <v>3.632303011988943</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -7829,8 +8663,15 @@
       <c r="G38" s="21">
         <v>-13.983763626349276</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -7852,8 +8693,15 @@
       <c r="G39" s="21">
         <v>-37.987468588798926</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -7875,8 +8723,15 @@
       <c r="G40" s="21">
         <v>-5.5588269576254721</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -7897,6 +8752,13 @@
       </c>
       <c r="G41" s="25">
         <v>-2.5796044366397299</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7908,13 +8770,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D33F4DE-1FD6-1249-AAB3-117BF50CF73F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7936,14 +8798,18 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7956,8 +8822,14 @@
       <c r="D2" s="11">
         <v>52.565040249273565</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7970,8 +8842,15 @@
       <c r="D3" s="11">
         <v>39.888219855540008</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> MOD(I2 + 1, 10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7984,8 +8863,15 @@
       <c r="D4" s="11">
         <v>36.27489042781739</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="0" xml:space="preserve"> MOD(I3 + 1, 10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7998,8 +8884,15 @@
       <c r="D5" s="11">
         <v>36.592132202095272</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8012,8 +8905,15 @@
       <c r="D6" s="11">
         <v>30.783088964248545</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8026,8 +8926,15 @@
       <c r="D7" s="11">
         <v>26.367624226220631</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -8040,8 +8947,15 @@
       <c r="D8" s="11">
         <v>41.471386329713638</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8054,8 +8968,15 @@
       <c r="D9" s="11">
         <v>50.984949745485324</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8068,8 +8989,15 @@
       <c r="D10" s="11">
         <v>40.188500322851503</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -8082,8 +9010,15 @@
       <c r="D11" s="12">
         <v>32.585299990068421</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -8105,8 +9040,15 @@
       <c r="G12" s="21">
         <v>35.466845250950421</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -8128,8 +9070,15 @@
       <c r="G13" s="21">
         <v>17.515944441280137</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -8151,8 +9100,15 @@
       <c r="G14" s="21">
         <v>25.111071987057365</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -8174,8 +9130,15 @@
       <c r="G15" s="21">
         <v>55.132595027328193</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -8197,8 +9160,15 @@
       <c r="G16" s="21">
         <v>104.76366389210013</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -8220,8 +9190,15 @@
       <c r="G17" s="21">
         <v>4.7701708738038811</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -8243,8 +9220,15 @@
       <c r="G18" s="21">
         <v>-5.1040529116803892</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -8266,8 +9250,15 @@
       <c r="G19" s="21">
         <v>47.106017491672333</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -8289,8 +9280,15 @@
       <c r="G20" s="21">
         <v>18.460419556463496</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -8312,8 +9310,15 @@
       <c r="G21" s="25">
         <v>92.554504315514961</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -8335,8 +9340,15 @@
       <c r="G22" s="21">
         <v>0.42089336390649251</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -8358,8 +9370,15 @@
       <c r="G23" s="21">
         <v>-15.944916363592668</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -8381,8 +9400,15 @@
       <c r="G24" s="21">
         <v>-44.699403595854342</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -8404,8 +9430,15 @@
       <c r="G25" s="21">
         <v>-0.64103949805662452</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -8427,8 +9460,15 @@
       <c r="G26" s="21">
         <v>-54.196450720177502</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -8450,8 +9490,15 @@
       <c r="G27" s="21">
         <v>-22.336491645333947</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -8473,8 +9520,15 @@
       <c r="G28" s="21">
         <v>-20.326511362117458</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -8496,8 +9550,15 @@
       <c r="G29" s="21">
         <v>-0.91743581299772226</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -8519,8 +9580,15 @@
       <c r="G30" s="21">
         <v>-0.89624407448524002</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -8542,8 +9610,15 @@
       <c r="G31" s="25">
         <v>-55.499926033959348</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -8565,8 +9640,15 @@
       <c r="G32" s="21">
         <v>-15.687465982468321</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -8588,8 +9670,15 @@
       <c r="G33" s="21">
         <v>-4.9093235238061794</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -8611,8 +9700,15 @@
       <c r="G34" s="21">
         <v>13.925868061701369</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -8634,8 +9730,15 @@
       <c r="G35" s="21">
         <v>0.92038483184416675</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -8657,8 +9760,15 @@
       <c r="G36" s="21">
         <v>-9.2289306245705998</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -8680,8 +9790,15 @@
       <c r="G37" s="21">
         <v>7.1999479467412364</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -8703,8 +9820,15 @@
       <c r="G38" s="21">
         <v>-7.0722308202793932E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -8726,8 +9850,15 @@
       <c r="G39" s="21">
         <v>13.343093951425297</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -8749,8 +9880,15 @@
       <c r="G40" s="21">
         <v>-10.16363651325009</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -8771,6 +9909,13 @@
       </c>
       <c r="G41" s="25">
         <v>-19.349380804781109</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -8783,12 +9928,12 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H1" sqref="H1:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -8810,14 +9955,18 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8830,9 +9979,14 @@
       <c r="D2" s="11">
         <v>35.231467580089507</v>
       </c>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8845,9 +9999,15 @@
       <c r="D3" s="11">
         <v>37.622329539653009</v>
       </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> MOD(I2 + 1, 10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8860,9 +10020,15 @@
       <c r="D4" s="11">
         <v>25.9529397896194</v>
       </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="0" xml:space="preserve"> MOD(I3 + 1, 10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8875,9 +10041,15 @@
       <c r="D5" s="11">
         <v>28.531292153617674</v>
       </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8890,9 +10062,15 @@
       <c r="D6" s="11">
         <v>53.435944821688608</v>
       </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8905,9 +10083,15 @@
       <c r="D7" s="11">
         <v>48.450229297803133</v>
       </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -8920,9 +10104,15 @@
       <c r="D8" s="11">
         <v>38.675432514042392</v>
       </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8935,9 +10125,15 @@
       <c r="D9" s="11">
         <v>44.96784412807753</v>
       </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8950,9 +10146,15 @@
       <c r="D10" s="11">
         <v>35.555397349656964</v>
       </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -8965,9 +10167,15 @@
       <c r="D11" s="12">
         <v>53.051051427908021</v>
       </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -8978,7 +10186,7 @@
         <v>935.63622252766891</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" ref="D12:D41" si="0">C12/B12</f>
+        <f t="shared" ref="D12:D41" si="1">C12/B12</f>
         <v>68.334518151305062</v>
       </c>
       <c r="E12" s="18">
@@ -8990,8 +10198,15 @@
       <c r="G12" s="20">
         <v>93.958761428159193</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -9002,7 +10217,7 @@
         <v>706.0887896754482</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.904607977320673</v>
       </c>
       <c r="E13" s="18">
@@ -9014,8 +10229,15 @@
       <c r="G13" s="20">
         <v>53.910214188865254</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -9026,7 +10248,7 @@
         <v>785.77892240859921</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.009361551694298</v>
       </c>
       <c r="E14" s="18">
@@ -9038,8 +10260,15 @@
       <c r="G14" s="20">
         <v>146.63626575859672</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -9050,7 +10279,7 @@
         <v>611.67305858108898</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.530334833627307</v>
       </c>
       <c r="E15" s="18">
@@ -9062,8 +10291,15 @@
       <c r="G15" s="20">
         <v>115.65912438292938</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -9074,7 +10310,7 @@
         <v>753.50289300674592</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.601785532757773</v>
       </c>
       <c r="E16" s="18">
@@ -9086,8 +10322,15 @@
       <c r="G16" s="20">
         <v>56.452338985920647</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -9098,7 +10341,7 @@
         <v>1103.7005324439524</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.193448986464929</v>
       </c>
       <c r="E17" s="18">
@@ -9110,8 +10353,15 @@
       <c r="G17" s="20">
         <v>61.389223786419592</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -9122,7 +10372,7 @@
         <v>739.57136525818532</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.691482045725373</v>
       </c>
       <c r="E18" s="18">
@@ -9134,8 +10384,15 @@
       <c r="G18" s="20">
         <v>51.753912575936923</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -9146,7 +10403,7 @@
         <v>754.48959926801729</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.366057263811541</v>
       </c>
       <c r="E19" s="18">
@@ -9158,8 +10415,15 @@
       <c r="G19" s="20">
         <v>67.599889932801176</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -9170,7 +10434,7 @@
         <v>677.84119813164659</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.08664755234836</v>
       </c>
       <c r="E20" s="18">
@@ -9182,8 +10446,15 @@
       <c r="G20" s="20">
         <v>54.931885616741205</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -9194,7 +10465,7 @@
         <v>788.05599341542279</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87.805681717595846</v>
       </c>
       <c r="E21" s="22">
@@ -9206,8 +10477,15 @@
       <c r="G21" s="24">
         <v>65.51167103052893</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -9218,7 +10496,7 @@
         <v>1032.9701631235077</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.824145568975496</v>
       </c>
       <c r="F22" s="19">
@@ -9227,8 +10505,15 @@
       <c r="G22" s="21">
         <v>3.6432940262459237</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -9239,7 +10524,7 @@
         <v>870.31362112946738</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.565687534311579</v>
       </c>
       <c r="F23" s="19">
@@ -9248,8 +10533,15 @@
       <c r="G23" s="21">
         <v>16.68447450809931</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -9260,7 +10552,7 @@
         <v>1014.7653590779959</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.350816302919114</v>
       </c>
       <c r="F24" s="19">
@@ -9269,8 +10561,15 @@
       <c r="G24" s="21">
         <v>20.842974258460909</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -9281,7 +10580,7 @@
         <v>826.13020879073758</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.588652099300347</v>
       </c>
       <c r="F25" s="19">
@@ -9290,8 +10589,15 @@
       <c r="G25" s="21">
         <v>29.348641307578067</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -9302,7 +10608,7 @@
         <v>885.55095388549296</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.343556619885121</v>
       </c>
       <c r="F26" s="19">
@@ -9311,8 +10617,15 @@
       <c r="G26" s="21">
         <v>14.044880755000811</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -9323,7 +10636,7 @@
         <v>1213.5124104168667</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.548502813298384</v>
       </c>
       <c r="F27" s="19">
@@ -9332,8 +10645,15 @@
       <c r="G27" s="21">
         <v>1.7329505788496564</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -9344,7 +10664,7 @@
         <v>897.9362496910926</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.732990095126553</v>
       </c>
       <c r="F28" s="19">
@@ -9353,8 +10673,15 @@
       <c r="G28" s="21">
         <v>15.405145234460294</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -9365,7 +10692,7 @@
         <v>838.62505693085996</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.287187931489129</v>
       </c>
       <c r="F29" s="19">
@@ -9374,8 +10701,15 @@
       <c r="G29" s="21">
         <v>1.2222089109070142</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9386,7 +10720,7 @@
         <v>803.46758055589032</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.871829705520582</v>
       </c>
       <c r="F30" s="19">
@@ -9395,8 +10729,15 @@
       <c r="G30" s="21">
         <v>12.317290041519268</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -9407,7 +10748,7 @@
         <v>885.88034613962816</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.95701428537545</v>
       </c>
       <c r="F31" s="23">
@@ -9416,8 +10757,15 @@
       <c r="G31" s="25">
         <v>5.8667417267455733</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -9428,7 +10776,7 @@
         <v>1083.0480792600099</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.963537475927737</v>
       </c>
       <c r="E32" s="19">
@@ -9440,8 +10788,15 @@
       <c r="G32" s="21">
         <v>4.4326576504827635</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -9452,7 +10807,7 @@
         <v>977.61241266346553</v>
       </c>
       <c r="D33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.197466511067347</v>
       </c>
       <c r="E33" s="19">
@@ -9464,8 +10819,15 @@
       <c r="G33" s="21">
         <v>5.3751824473205554</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -9476,7 +10838,7 @@
         <v>1284.1545496692393</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.661990942358997</v>
       </c>
       <c r="E34" s="19">
@@ -9488,8 +10850,15 @@
       <c r="G34" s="21">
         <v>24.965702448199124</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>84</v>
       </c>
@@ -9500,7 +10869,7 @@
         <v>1033.3877854457151</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94.321630654044824</v>
       </c>
       <c r="E35" s="19">
@@ -9512,8 +10881,15 @@
       <c r="G35" s="21">
         <v>18.511406043618614</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>84</v>
       </c>
@@ -9524,7 +10900,7 @@
         <v>980.76516709590317</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.82915257488466</v>
       </c>
       <c r="E36" s="19">
@@ -9536,8 +10912,15 @@
       <c r="G36" s="21">
         <v>5.753504640979008</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>84</v>
       </c>
@@ -9548,7 +10931,7 @@
         <v>1264.5439465391144</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.703861379805375</v>
       </c>
       <c r="E37" s="19">
@@ -9560,8 +10943,15 @@
       <c r="G37" s="21">
         <v>6.4807738476319283</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
@@ -9572,7 +10962,7 @@
         <v>1059.2546356527084</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.989591787123274</v>
       </c>
       <c r="E38" s="19">
@@ -9584,8 +10974,15 @@
       <c r="G38" s="21">
         <v>15.142697343778853</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>84</v>
       </c>
@@ -9596,7 +10993,7 @@
         <v>906.5526510888858</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.707539343387438</v>
       </c>
       <c r="E39" s="19">
@@ -9608,8 +11005,15 @@
       <c r="G39" s="21">
         <v>9.7268645143431804</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>84</v>
       </c>
@@ -9620,7 +11024,7 @@
         <v>946.7568873575708</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.38331353069222</v>
       </c>
       <c r="E40" s="19">
@@ -9632,8 +11036,15 @@
       <c r="G40" s="21">
         <v>15.372882732645232</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -9644,7 +11055,7 @@
         <v>979.03071100772218</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.393980812966745</v>
       </c>
       <c r="E41" s="22">
@@ -9655,6 +11066,13 @@
       </c>
       <c r="G41" s="25">
         <v>6.9246700499975038</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -9666,13 +11084,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20815BDD-EA8C-2D46-845A-59FD9781CE26}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -9694,14 +11112,18 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
       <c r="L1" s="2"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9714,8 +11136,14 @@
       <c r="D2" s="7">
         <v>43.123856103341474</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9728,8 +11156,15 @@
       <c r="D3" s="7">
         <v>36.612934322281049</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> MOD(I2 + 1, 10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9742,8 +11177,15 @@
       <c r="D4" s="7">
         <v>50.985450215398501</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="0" xml:space="preserve"> MOD(I3 + 1, 10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -9756,8 +11198,15 @@
       <c r="D5" s="7">
         <v>32.818387998004454</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -9770,8 +11219,15 @@
       <c r="D6" s="7">
         <v>43.300427315451167</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9784,8 +11240,15 @@
       <c r="D7" s="7">
         <v>24.662464433612264</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9798,8 +11261,15 @@
       <c r="D8" s="7">
         <v>43.625054933327462</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9812,8 +11282,15 @@
       <c r="D9" s="7">
         <v>38.797642202093513</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9826,8 +11303,15 @@
       <c r="D10" s="7">
         <v>54.832208175793092</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9840,14 +11324,19 @@
       <c r="D11" s="10">
         <v>50.848947556815773</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
@@ -9870,11 +11359,18 @@
       <c r="G12" s="20">
         <v>64.568151139088499</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K12" s="18"/>
       <c r="L12" s="19"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -9885,7 +11381,7 @@
         <v>912.66552430513707</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" ref="D13:D21" si="0">C13/B13</f>
+        <f t="shared" ref="D13:D21" si="1">C13/B13</f>
         <v>64.078180460937801</v>
       </c>
       <c r="E13" s="18">
@@ -9896,12 +11392,19 @@
       </c>
       <c r="G13" s="20">
         <v>75.015146005226327</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="19"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
@@ -9912,7 +11415,7 @@
         <v>1110.5442447240666</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85.373942552588147</v>
       </c>
       <c r="E14" s="18">
@@ -9923,12 +11426,19 @@
       </c>
       <c r="G14" s="20">
         <v>67.447658482779687</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="19"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>28</v>
       </c>
@@ -9939,7 +11449,7 @@
         <v>647.54078700403772</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.253039492986481</v>
       </c>
       <c r="E15" s="18">
@@ -9950,12 +11460,19 @@
       </c>
       <c r="G15" s="20">
         <v>77.501221255987957</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="19"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -9966,7 +11483,7 @@
         <v>741.34331912529694</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.740020343818642</v>
       </c>
       <c r="E16" s="18">
@@ -9977,12 +11494,19 @@
       </c>
       <c r="G16" s="20">
         <v>74.917489363417559</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -9993,7 +11517,7 @@
         <v>698.95391817069662</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.439057857719796</v>
       </c>
       <c r="E17" s="18">
@@ -10004,12 +11528,19 @@
       </c>
       <c r="G17" s="20">
         <v>108.57225358068409</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="19"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -10020,7 +11551,7 @@
         <v>975.25225834254093</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.615591416840218</v>
       </c>
       <c r="E18" s="18">
@@ -10031,12 +11562,19 @@
       </c>
       <c r="G18" s="20">
         <v>52.700303801678615</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="19"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -10047,7 +11585,7 @@
         <v>632.6806377890199</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.468060003415729</v>
       </c>
       <c r="E19" s="18">
@@ -10058,12 +11596,19 @@
       </c>
       <c r="G19" s="20">
         <v>91.939653485946749</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="19"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -10074,7 +11619,7 @@
         <v>584.79156259126808</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.116128423504065</v>
       </c>
       <c r="E20" s="18">
@@ -10085,12 +11630,19 @@
       </c>
       <c r="G20" s="20">
         <v>26.050237119607615</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="19"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -10101,7 +11653,7 @@
         <v>680.8145514256712</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.149604747314442</v>
       </c>
       <c r="E21" s="22">
@@ -10112,12 +11664,19 @@
       </c>
       <c r="G21" s="24">
         <v>34.023628849285195</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56</v>
       </c>
@@ -10128,7 +11687,7 @@
         <v>897.72155652545098</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" ref="D22:D31" si="1">C22/B22</f>
+        <f t="shared" ref="D22:D31" si="2">C22/B22</f>
         <v>80.585418000489312</v>
       </c>
       <c r="E22" s="18">
@@ -10140,8 +11699,15 @@
       <c r="G22" s="21">
         <v>13.551554686473541</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -10152,7 +11718,7 @@
         <v>1008.1863370020976</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.772676593311203</v>
       </c>
       <c r="E23" s="18">
@@ -10164,8 +11730,15 @@
       <c r="G23" s="21">
         <v>5.7656071158661799</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>56</v>
       </c>
@@ -10176,7 +11749,7 @@
         <v>1195.6311166209518</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.79140293861164</v>
       </c>
       <c r="E24" s="18">
@@ -10188,8 +11761,15 @@
       <c r="G24" s="21">
         <v>2.8316138551694499</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
@@ -10200,7 +11780,7 @@
         <v>703.29704327153831</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.627629482455681</v>
       </c>
       <c r="E25" s="18">
@@ -10212,8 +11792,15 @@
       <c r="G25" s="21">
         <v>0.6430393894112596</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
@@ -10224,7 +11811,7 @@
         <v>867.17924796121156</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.878882821377729</v>
       </c>
       <c r="E26" s="18">
@@ -10236,8 +11823,15 @@
       <c r="G26" s="21">
         <v>8.1051766948199635</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -10248,7 +11842,7 @@
         <v>984.56714777923685</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.262549966882645</v>
       </c>
       <c r="E27" s="18">
@@ -10260,8 +11854,15 @@
       <c r="G27" s="21">
         <v>34.649725036688167</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>56</v>
       </c>
@@ -10272,7 +11873,7 @@
         <v>1174.3632587122086</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.536966408895111</v>
       </c>
       <c r="E28" s="18">
@@ -10284,8 +11885,15 @@
       <c r="G28" s="21">
         <v>17.895772954199437</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>56</v>
       </c>
@@ -10296,7 +11904,7 @@
         <v>845.3643636304223</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.662979681072258</v>
       </c>
       <c r="E29" s="18">
@@ -10308,8 +11916,15 @@
       <c r="G29" s="21">
         <v>24.433186089206512</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -10320,7 +11935,7 @@
         <v>654.79550435125384</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.795497982351719</v>
       </c>
       <c r="E30" s="18">
@@ -10332,8 +11947,15 @@
       <c r="G30" s="21">
         <v>5.3234601572336109</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -10344,7 +11966,7 @@
         <v>761.52962344959144</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.77018535789901</v>
       </c>
       <c r="E31" s="22">
@@ -10356,8 +11978,15 @@
       <c r="G31" s="25">
         <v>8.2474148330347532</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>84</v>
       </c>
@@ -10368,7 +11997,7 @@
         <v>984.37157112834416</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" ref="D32:D41" si="2">C32/B32</f>
+        <f t="shared" ref="D32:D41" si="3">C32/B32</f>
         <v>87.02011767400495</v>
       </c>
       <c r="E32" s="18">
@@ -10380,8 +12009,15 @@
       <c r="G32" s="21">
         <v>7.9849429750138761</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="15">
         <v>14.983999999999998</v>
       </c>
@@ -10389,7 +12025,7 @@
         <v>1106.3415524815728</v>
       </c>
       <c r="D33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73.834860683500594</v>
       </c>
       <c r="E33" s="18">
@@ -10401,8 +12037,15 @@
       <c r="G33" s="21">
         <v>8.9448792565287221</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="15">
         <v>13.48</v>
       </c>
@@ -10410,7 +12053,7 @@
         <v>1280.6113771855835</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95.000844004865243</v>
       </c>
       <c r="E34" s="18">
@@ -10422,8 +12065,15 @@
       <c r="G34" s="21">
         <v>8.2120125945530482</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="15">
         <v>11.870999999999999</v>
       </c>
@@ -10431,7 +12081,7 @@
         <v>752.44780844271884</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.385376837900672</v>
       </c>
       <c r="E35" s="18">
@@ -10443,8 +12093,15 @@
       <c r="G35" s="21">
         <v>8.1151965335196561</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="15">
         <v>10.844999999999999</v>
       </c>
@@ -10452,7 +12109,7 @@
         <v>986.7736347316029</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.988809103882247</v>
       </c>
       <c r="E36" s="18">
@@ -10464,8 +12121,15 @@
       <c r="G36" s="21">
         <v>11.126099878986148</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="15">
         <v>14.800999999999998</v>
       </c>
@@ -10473,7 +12137,7 @@
         <v>1144.4591476403562</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77.323096252979951</v>
       </c>
       <c r="E37" s="18">
@@ -10485,8 +12149,15 @@
       <c r="G37" s="21">
         <v>11.637668971112664</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="15">
         <v>15.567</v>
       </c>
@@ -10494,7 +12165,7 @@
         <v>1314.5615721291017</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.445401948294574</v>
       </c>
       <c r="E38" s="18">
@@ -10506,8 +12177,15 @@
       <c r="G38" s="21">
         <v>7.5231267638194295</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="15">
         <v>9.2409999999999997</v>
       </c>
@@ -10515,7 +12193,7 @@
         <v>988.83013056824655</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107.00466730529668</v>
       </c>
       <c r="E39" s="18">
@@ -10527,8 +12205,15 @@
       <c r="G39" s="21">
         <v>15.477257124242808</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="15">
         <v>8.7940000000000005</v>
       </c>
@@ -10536,7 +12221,7 @@
         <v>668.43366712347517</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76.010196397938955</v>
       </c>
       <c r="E40" s="18">
@@ -10548,8 +12233,15 @@
       <c r="G40" s="21">
         <v>4.4160676205094385</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16">
         <v>10.420999999999999</v>
       </c>
@@ -10557,7 +12249,7 @@
         <v>796.8481196987924</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76.465609797408348</v>
       </c>
       <c r="E41" s="22">
@@ -10568,6 +12260,13 @@
       </c>
       <c r="G41" s="25">
         <v>3.6538127516318122</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
